--- a/notebook/rdp_report_pro.xlsx
+++ b/notebook/rdp_report_pro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BA5B8-80CD-488B-9665-88C6F54FB91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFB329-A5B7-46D0-9E85-E23F84611FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1200" windowWidth="22710" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1890" windowWidth="22710" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,22 +151,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>169131</xdr:rowOff>
+      <xdr:rowOff>172489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523896</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>156602</xdr:rowOff>
+      <xdr:colOff>21</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7D42DB-324B-D186-4583-012FB47CA9CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0661F91D-12A6-A22B-8F10-04595472D6BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -188,8 +188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="2531331"/>
-          <a:ext cx="6896121" cy="3606971"/>
+          <a:off x="161925" y="2534689"/>
+          <a:ext cx="6543696" cy="3422638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/notebook/rdp_report_pro.xlsx
+++ b/notebook/rdp_report_pro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFB329-A5B7-46D0-9E85-E23F84611FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67E5B8-66D9-406B-A861-8ADA55F2DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1890" windowWidth="22710" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,22 +151,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>172489</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>21</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>166127</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39645</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>120407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0661F91D-12A6-A22B-8F10-04595472D6BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B239624-E53D-88C4-3DAC-F3B38DBEBA0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -175,7 +175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -188,8 +188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="2534689"/>
-          <a:ext cx="6543696" cy="3422638"/>
+          <a:off x="419100" y="2385060"/>
+          <a:ext cx="10593345" cy="5500127"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,9 +468,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -506,231 +506,231 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8092</v>
+        <v>10320</v>
       </c>
       <c r="B3">
-        <v>8094</v>
+        <v>10325</v>
       </c>
       <c r="C3">
-        <v>8018</v>
+        <v>10280</v>
       </c>
       <c r="D3">
-        <v>8108</v>
+        <v>10370</v>
       </c>
       <c r="E3">
-        <v>7970</v>
+        <v>10280</v>
       </c>
       <c r="F3">
-        <v>7987.6666299999997</v>
+        <v>10280</v>
       </c>
       <c r="G3">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>8290</v>
+        <v>10495</v>
       </c>
       <c r="C4">
-        <v>8070</v>
+        <v>10350</v>
       </c>
       <c r="D4">
-        <v>8318</v>
+        <v>10520</v>
       </c>
       <c r="E4">
-        <v>8070</v>
+        <v>10340</v>
       </c>
       <c r="F4">
-        <v>8070</v>
+        <v>10448.379999999999</v>
       </c>
       <c r="G4">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8300</v>
+        <v>10530</v>
       </c>
       <c r="B5">
-        <v>8302</v>
+        <v>10535</v>
       </c>
       <c r="C5">
-        <v>8250</v>
+        <v>10410</v>
       </c>
       <c r="D5">
-        <v>8322</v>
+        <v>10535</v>
       </c>
       <c r="E5">
-        <v>8236</v>
+        <v>10365</v>
       </c>
       <c r="F5">
-        <v>8296</v>
+        <v>10410</v>
       </c>
       <c r="G5">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8306</v>
+        <v>10615</v>
       </c>
       <c r="B6">
-        <v>8308</v>
+        <v>10620</v>
       </c>
       <c r="C6">
-        <v>8344</v>
+        <v>10560</v>
       </c>
       <c r="D6">
-        <v>8344</v>
+        <v>10670</v>
       </c>
       <c r="E6">
-        <v>8266</v>
+        <v>10560</v>
       </c>
       <c r="F6">
-        <v>8308</v>
+        <v>10560</v>
       </c>
       <c r="G6">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8400</v>
+        <v>10515</v>
       </c>
       <c r="B7">
-        <v>8402</v>
+        <v>10520</v>
       </c>
       <c r="C7">
-        <v>8352</v>
+        <v>10585</v>
       </c>
       <c r="D7">
-        <v>8454</v>
+        <v>10600</v>
       </c>
       <c r="E7">
-        <v>8342</v>
+        <v>10440</v>
       </c>
       <c r="F7">
-        <v>8352</v>
+        <v>10505</v>
       </c>
       <c r="G7">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8420</v>
+        <v>10385</v>
       </c>
       <c r="B8">
-        <v>8422</v>
+        <v>10395</v>
       </c>
       <c r="C8">
-        <v>8384</v>
+        <v>10465</v>
       </c>
       <c r="D8">
-        <v>8452</v>
+        <v>10505</v>
       </c>
       <c r="E8">
-        <v>8354</v>
+        <v>10380</v>
       </c>
       <c r="F8">
-        <v>8384</v>
+        <v>10402.14</v>
       </c>
       <c r="G8">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8312</v>
+        <v>10655</v>
       </c>
       <c r="B9">
-        <v>8314</v>
+        <v>10660</v>
       </c>
       <c r="C9">
-        <v>8426</v>
+        <v>10425</v>
       </c>
       <c r="D9">
-        <v>8434</v>
+        <v>10830</v>
       </c>
       <c r="E9">
-        <v>8300</v>
+        <v>10420</v>
       </c>
       <c r="F9">
-        <v>8426</v>
+        <v>10655</v>
       </c>
       <c r="G9">
-        <v>4607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8344</v>
+        <v>10605</v>
       </c>
       <c r="B10">
-        <v>8346</v>
+        <v>10610</v>
       </c>
       <c r="C10">
-        <v>8300</v>
+        <v>10640</v>
       </c>
       <c r="D10">
-        <v>8406</v>
+        <v>10695</v>
       </c>
       <c r="E10">
-        <v>8300</v>
+        <v>10600</v>
       </c>
       <c r="F10">
-        <v>8354</v>
+        <v>10644.57</v>
       </c>
       <c r="G10">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8398</v>
+        <v>10710</v>
       </c>
       <c r="B11">
-        <v>8402</v>
+        <v>10715</v>
       </c>
       <c r="C11">
-        <v>8328</v>
+        <v>10615</v>
       </c>
       <c r="D11">
-        <v>8418</v>
+        <v>10735</v>
       </c>
       <c r="E11">
-        <v>8270</v>
+        <v>10605</v>
       </c>
       <c r="F11">
-        <v>8328</v>
+        <v>10615.349130000001</v>
       </c>
       <c r="G11">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8466</v>
+        <v>10595</v>
       </c>
       <c r="B12">
-        <v>8468</v>
+        <v>10600</v>
       </c>
       <c r="C12">
-        <v>8416</v>
+        <v>10745</v>
       </c>
       <c r="D12">
-        <v>8468</v>
+        <v>10760</v>
       </c>
       <c r="E12">
-        <v>8372</v>
+        <v>10580</v>
       </c>
       <c r="F12">
-        <v>8452</v>
+        <v>10745</v>
       </c>
       <c r="G12">
-        <v>1987</v>
+        <v>3241</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/rdp_report_pro.xlsx
+++ b/notebook/rdp_report_pro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67E5B8-66D9-406B-A861-8ADA55F2DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8093C-06F5-4312-9572-E38A7280D9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3300" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,22 +151,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>39645</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>120407</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>230145</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>13727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B239624-E53D-88C4-3DAC-F3B38DBEBA0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B16D90-3FA9-BA33-853A-A00148DBA941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -188,7 +188,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="2385060"/>
+          <a:off x="0" y="632460"/>
           <a:ext cx="10593345" cy="5500127"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
